--- a/fichiers/tableau_compétences.xlsx
+++ b/fichiers/tableau_compétences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvben\Desktop\Epreuve E6\fichiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvben\Desktop\Portfolio\fichiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B5067F-8186-4CDE-AC62-552AE649290A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E04CD38-005E-4E6E-A6F5-35F34F3867FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11892" yWindow="1596" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableau de synthèse SLAM" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>SITUATIONS VÉCUES EN FORMATION</t>
   </si>
@@ -199,21 +199,9 @@
     <t>Situation professionnelle                                                                                                     (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t>VEILLE TECHNOLOGIQUE</t>
-  </si>
-  <si>
     <t>PORTFOLIO</t>
   </si>
   <si>
-    <t>NOM et Prénom du candidat : KAPOOR Benjamin</t>
-  </si>
-  <si>
-    <t>Du 21 novembre au 23 décembre 2016</t>
-  </si>
-  <si>
-    <t>septembre 2015 - avril 2017</t>
-  </si>
-  <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS - SESSION 2021 - TABLEAU DE SYNTHESE</t>
   </si>
   <si>
@@ -230,6 +218,15 @@
   </si>
   <si>
     <t>PPE 2 AUTO-ECOLE</t>
+  </si>
+  <si>
+    <t>NOM et Prénom du candidat : CARVALHO Ruben</t>
+  </si>
+  <si>
+    <t>novembre 2019 - février 2021</t>
+  </si>
+  <si>
+    <t>Du 16 novembre au 19 décembre 2020</t>
   </si>
 </sst>
 </file>
@@ -721,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -752,7 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -760,7 +756,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -768,7 +763,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,9 +773,6 @@
     <xf numFmtId="17" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,39 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -834,7 +792,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,8 +801,34 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -855,9 +838,32 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1142,204 +1148,204 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC20"/>
+  <dimension ref="A1:BC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.5546875" customWidth="1"/>
     <col min="2" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="43.6640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" style="37" customWidth="1"/>
     <col min="7" max="16" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5546875" customWidth="1"/>
     <col min="18" max="54" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
     </row>
     <row r="2" spans="1:55" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
     </row>
     <row r="3" spans="1:55" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="54"/>
     </row>
     <row r="4" spans="1:55" s="1" customFormat="1" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1357,7 +1363,7 @@
       <c r="E4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>49</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -1402,7 +1408,7 @@
       <c r="T4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="44" t="s">
         <v>14</v>
       </c>
       <c r="V4" s="8" t="s">
@@ -1506,424 +1512,419 @@
       </c>
     </row>
     <row r="5" spans="1:55" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="45"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
+      <c r="BB5" s="61"/>
     </row>
     <row r="6" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="35">
-        <v>42278</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57"/>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57"/>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="58"/>
-      <c r="BC6" s="21"/>
+      <c r="A6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="32">
+        <v>43739</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="20"/>
     </row>
     <row r="7" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="36">
-        <v>42736</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="23"/>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="23"/>
-      <c r="AU7" s="23"/>
-      <c r="AV7" s="23"/>
-      <c r="AW7" s="23"/>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="23"/>
-      <c r="BA7" s="23"/>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="21"/>
+      <c r="A7" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="33">
+        <v>44084</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="20"/>
     </row>
     <row r="8" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="34" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="20"/>
+    </row>
+    <row r="9" spans="1:55" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="57"/>
+      <c r="BA9" s="57"/>
+      <c r="BB9" s="58"/>
+    </row>
+    <row r="10" spans="1:55" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="23"/>
-      <c r="AW8" s="23"/>
-      <c r="AX8" s="23"/>
-      <c r="AY8" s="23"/>
-      <c r="AZ8" s="23"/>
-      <c r="BA8" s="23"/>
-      <c r="BB8" s="55"/>
-      <c r="BC8" s="21"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="45"/>
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="45"/>
+      <c r="AU10" s="45"/>
+      <c r="AV10" s="45"/>
+      <c r="AW10" s="45"/>
+      <c r="AX10" s="45"/>
+      <c r="AY10" s="45"/>
+      <c r="AZ10" s="45"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="76"/>
     </row>
-    <row r="9" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="36">
-        <v>42767</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23"/>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23"/>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23"/>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="55"/>
-      <c r="BC9" s="21"/>
-    </row>
-    <row r="10" spans="1:55" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="66"/>
-    </row>
-    <row r="11" spans="1:55" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="61"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="61"/>
-      <c r="BA11" s="61"/>
-      <c r="BB11" s="62"/>
+    <row r="11" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="46"/>
     </row>
     <row r="12" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -1931,63 +1932,63 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="16"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="63"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="6"/>
     </row>
-    <row r="13" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="16"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2037,413 +2038,357 @@
       <c r="BA13" s="2"/>
       <c r="BB13" s="6"/>
     </row>
-    <row r="14" spans="1:55" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="6"/>
+    <row r="14" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
     </row>
-    <row r="15" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
+    <row r="15" spans="1:55" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="55"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="55"/>
+      <c r="AW15" s="55"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="55"/>
+      <c r="AZ15" s="55"/>
+      <c r="BA15" s="55"/>
+      <c r="BB15" s="55"/>
     </row>
-    <row r="16" spans="1:55" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
+    <row r="16" spans="1:55" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
     </row>
     <row r="17" spans="1:54" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="55"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55"/>
+      <c r="AP17" s="55"/>
+      <c r="AQ17" s="55"/>
+      <c r="AR17" s="55"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="55"/>
+      <c r="AV17" s="55"/>
+      <c r="AW17" s="55"/>
+      <c r="AX17" s="55"/>
+      <c r="AY17" s="55"/>
+      <c r="AZ17" s="55"/>
+      <c r="BA17" s="55"/>
+      <c r="BB17" s="55"/>
     </row>
-    <row r="18" spans="1:54" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="42"/>
-      <c r="AL18" s="42"/>
-      <c r="AM18" s="42"/>
-      <c r="AN18" s="42"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="42"/>
-      <c r="AV18" s="42"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
+    <row r="18" spans="1:54" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
     </row>
     <row r="19" spans="1:54" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-    </row>
-    <row r="20" spans="1:54" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
+      <c r="AP19" s="55"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="55"/>
+      <c r="AV19" s="55"/>
+      <c r="AW19" s="55"/>
+      <c r="AX19" s="55"/>
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="55"/>
+      <c r="BA19" s="55"/>
+      <c r="BB19" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:BB17"/>
+    <mergeCell ref="A19:BB19"/>
+    <mergeCell ref="A9:BB9"/>
+    <mergeCell ref="A5:BB5"/>
+    <mergeCell ref="A15:BB15"/>
     <mergeCell ref="A1:BB1"/>
     <mergeCell ref="AL2:BB2"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="V2:AK2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:BB3"/>
-    <mergeCell ref="A18:BB18"/>
-    <mergeCell ref="A20:BB20"/>
-    <mergeCell ref="A10:BB10"/>
-    <mergeCell ref="A5:BB5"/>
-    <mergeCell ref="A16:BB16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
